--- a/src/_static/xlsx/tab_Stati_Esteri.xlsx
+++ b/src/_static/xlsx/tab_Stati_Esteri.xlsx
@@ -4,17 +4,20 @@
   <fileVersion appName="xl" lastEdited="5" lowestEdited="5" rupBuild="9303"/>
   <workbookPr defaultThemeVersion="124226"/>
   <bookViews>
-    <workbookView xWindow="132" yWindow="480" windowWidth="19836" windowHeight="8676"/>
+    <workbookView xWindow="135" yWindow="480" windowWidth="19440" windowHeight="8670"/>
   </bookViews>
   <sheets>
     <sheet name="tabella 2" sheetId="1" r:id="rId1"/>
   </sheets>
+  <definedNames>
+    <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">'tabella 2'!$A$1:$R$239</definedName>
+  </definedNames>
   <calcPr calcId="0"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="3714" uniqueCount="1557">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="3717" uniqueCount="1560">
   <si>
     <t>ID</t>
   </si>
@@ -4685,6 +4688,15 @@
   </si>
   <si>
     <t>Z161</t>
+  </si>
+  <si>
+    <t>17/07/2018</t>
+  </si>
+  <si>
+    <t>Z513</t>
+  </si>
+  <si>
+    <t>Z501</t>
   </si>
 </sst>
 </file>
@@ -4731,6 +4743,9 @@
   <extLst>
     <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
       <x14:slicerStyles defaultSlicerStyle="SlicerStyleLight1"/>
+    </ext>
+    <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{9260A510-F301-46a8-8635-F512D64BE5F5}">
+      <x15:timelineStyles defaultTimelineStyle="TimeSlicerStyleLight1"/>
     </ext>
   </extLst>
 </styleSheet>
@@ -5026,32 +5041,32 @@
   <dimension ref="A1:R239"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="R214" sqref="R214"/>
+      <pane ySplit="1" topLeftCell="A191" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="C220" sqref="C220"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="2" max="2" width="43" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="49.21875" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="33.6640625" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="18.44140625" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="16.88671875" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="49.28515625" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="33.7109375" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="18.42578125" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="16.85546875" bestFit="1" customWidth="1"/>
     <col min="7" max="7" width="21" bestFit="1" customWidth="1"/>
-    <col min="8" max="8" width="8.44140625" bestFit="1" customWidth="1"/>
-    <col min="9" max="9" width="8.21875" bestFit="1" customWidth="1"/>
-    <col min="10" max="10" width="6.77734375" bestFit="1" customWidth="1"/>
-    <col min="11" max="11" width="9.21875" bestFit="1" customWidth="1"/>
-    <col min="12" max="12" width="13.44140625" bestFit="1" customWidth="1"/>
-    <col min="13" max="13" width="8.109375" bestFit="1" customWidth="1"/>
-    <col min="14" max="14" width="10.109375" bestFit="1" customWidth="1"/>
-    <col min="15" max="15" width="6.5546875" bestFit="1" customWidth="1"/>
-    <col min="16" max="16" width="11.109375" bestFit="1" customWidth="1"/>
-    <col min="17" max="17" width="15.77734375" bestFit="1" customWidth="1"/>
-    <col min="18" max="18" width="15.88671875" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="8.42578125" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="8.28515625" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="6.7109375" bestFit="1" customWidth="1"/>
+    <col min="11" max="11" width="9.28515625" bestFit="1" customWidth="1"/>
+    <col min="12" max="12" width="13.42578125" bestFit="1" customWidth="1"/>
+    <col min="13" max="13" width="8.140625" bestFit="1" customWidth="1"/>
+    <col min="14" max="14" width="10.140625" bestFit="1" customWidth="1"/>
+    <col min="15" max="15" width="6.5703125" bestFit="1" customWidth="1"/>
+    <col min="16" max="16" width="11.140625" bestFit="1" customWidth="1"/>
+    <col min="17" max="17" width="15.7109375" bestFit="1" customWidth="1"/>
+    <col min="18" max="18" width="15.85546875" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:18" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A1" t="s">
         <v>0</v>
       </c>
@@ -5107,7 +5122,7 @@
         <v>17</v>
       </c>
     </row>
-    <row r="2" spans="1:18" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
         <v>18</v>
       </c>
@@ -5157,7 +5172,7 @@
         <v>29</v>
       </c>
     </row>
-    <row r="3" spans="1:18" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A3" t="s">
         <v>30</v>
       </c>
@@ -5207,7 +5222,7 @@
         <v>29</v>
       </c>
     </row>
-    <row r="4" spans="1:18" x14ac:dyDescent="0.3">
+    <row r="4" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A4" t="s">
         <v>37</v>
       </c>
@@ -5257,7 +5272,7 @@
         <v>29</v>
       </c>
     </row>
-    <row r="5" spans="1:18" x14ac:dyDescent="0.3">
+    <row r="5" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A5" t="s">
         <v>44</v>
       </c>
@@ -5307,7 +5322,7 @@
         <v>29</v>
       </c>
     </row>
-    <row r="6" spans="1:18" x14ac:dyDescent="0.3">
+    <row r="6" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A6" t="s">
         <v>51</v>
       </c>
@@ -5357,7 +5372,7 @@
         <v>29</v>
       </c>
     </row>
-    <row r="7" spans="1:18" x14ac:dyDescent="0.3">
+    <row r="7" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A7" t="s">
         <v>58</v>
       </c>
@@ -5407,7 +5422,7 @@
         <v>29</v>
       </c>
     </row>
-    <row r="8" spans="1:18" x14ac:dyDescent="0.3">
+    <row r="8" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A8" t="s">
         <v>66</v>
       </c>
@@ -5457,7 +5472,7 @@
         <v>29</v>
       </c>
     </row>
-    <row r="9" spans="1:18" x14ac:dyDescent="0.3">
+    <row r="9" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A9" t="s">
         <v>73</v>
       </c>
@@ -5507,7 +5522,7 @@
         <v>29</v>
       </c>
     </row>
-    <row r="10" spans="1:18" x14ac:dyDescent="0.3">
+    <row r="10" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A10" t="s">
         <v>80</v>
       </c>
@@ -5560,7 +5575,7 @@
         <v>87</v>
       </c>
     </row>
-    <row r="11" spans="1:18" x14ac:dyDescent="0.3">
+    <row r="11" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A11" t="s">
         <v>88</v>
       </c>
@@ -5610,7 +5625,7 @@
         <v>29</v>
       </c>
     </row>
-    <row r="12" spans="1:18" x14ac:dyDescent="0.3">
+    <row r="12" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A12" t="s">
         <v>94</v>
       </c>
@@ -5660,7 +5675,7 @@
         <v>29</v>
       </c>
     </row>
-    <row r="13" spans="1:18" x14ac:dyDescent="0.3">
+    <row r="13" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A13" t="s">
         <v>101</v>
       </c>
@@ -5713,7 +5728,7 @@
         <v>87</v>
       </c>
     </row>
-    <row r="14" spans="1:18" x14ac:dyDescent="0.3">
+    <row r="14" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A14" t="s">
         <v>109</v>
       </c>
@@ -5763,7 +5778,7 @@
         <v>29</v>
       </c>
     </row>
-    <row r="15" spans="1:18" x14ac:dyDescent="0.3">
+    <row r="15" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A15" t="s">
         <v>116</v>
       </c>
@@ -5813,7 +5828,7 @@
         <v>29</v>
       </c>
     </row>
-    <row r="16" spans="1:18" x14ac:dyDescent="0.3">
+    <row r="16" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A16" t="s">
         <v>124</v>
       </c>
@@ -5863,7 +5878,7 @@
         <v>29</v>
       </c>
     </row>
-    <row r="17" spans="1:16" x14ac:dyDescent="0.3">
+    <row r="17" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A17" t="s">
         <v>131</v>
       </c>
@@ -5913,7 +5928,7 @@
         <v>29</v>
       </c>
     </row>
-    <row r="18" spans="1:16" x14ac:dyDescent="0.3">
+    <row r="18" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A18" t="s">
         <v>138</v>
       </c>
@@ -5963,7 +5978,7 @@
         <v>29</v>
       </c>
     </row>
-    <row r="19" spans="1:16" x14ac:dyDescent="0.3">
+    <row r="19" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A19" t="s">
         <v>146</v>
       </c>
@@ -6013,7 +6028,7 @@
         <v>29</v>
       </c>
     </row>
-    <row r="20" spans="1:16" x14ac:dyDescent="0.3">
+    <row r="20" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A20" t="s">
         <v>153</v>
       </c>
@@ -6063,7 +6078,7 @@
         <v>29</v>
       </c>
     </row>
-    <row r="21" spans="1:16" x14ac:dyDescent="0.3">
+    <row r="21" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A21" t="s">
         <v>160</v>
       </c>
@@ -6113,7 +6128,7 @@
         <v>29</v>
       </c>
     </row>
-    <row r="22" spans="1:16" x14ac:dyDescent="0.3">
+    <row r="22" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A22" t="s">
         <v>167</v>
       </c>
@@ -6163,7 +6178,7 @@
         <v>29</v>
       </c>
     </row>
-    <row r="23" spans="1:16" x14ac:dyDescent="0.3">
+    <row r="23" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A23" t="s">
         <v>175</v>
       </c>
@@ -6213,7 +6228,7 @@
         <v>29</v>
       </c>
     </row>
-    <row r="24" spans="1:16" x14ac:dyDescent="0.3">
+    <row r="24" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A24" t="s">
         <v>183</v>
       </c>
@@ -6263,7 +6278,7 @@
         <v>29</v>
       </c>
     </row>
-    <row r="25" spans="1:16" x14ac:dyDescent="0.3">
+    <row r="25" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A25" t="s">
         <v>191</v>
       </c>
@@ -6313,7 +6328,7 @@
         <v>29</v>
       </c>
     </row>
-    <row r="26" spans="1:16" x14ac:dyDescent="0.3">
+    <row r="26" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A26" t="s">
         <v>198</v>
       </c>
@@ -6363,7 +6378,7 @@
         <v>29</v>
       </c>
     </row>
-    <row r="27" spans="1:16" x14ac:dyDescent="0.3">
+    <row r="27" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A27" t="s">
         <v>206</v>
       </c>
@@ -6413,7 +6428,7 @@
         <v>29</v>
       </c>
     </row>
-    <row r="28" spans="1:16" x14ac:dyDescent="0.3">
+    <row r="28" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A28" t="s">
         <v>214</v>
       </c>
@@ -6463,7 +6478,7 @@
         <v>29</v>
       </c>
     </row>
-    <row r="29" spans="1:16" x14ac:dyDescent="0.3">
+    <row r="29" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A29" t="s">
         <v>221</v>
       </c>
@@ -6513,7 +6528,7 @@
         <v>29</v>
       </c>
     </row>
-    <row r="30" spans="1:16" x14ac:dyDescent="0.3">
+    <row r="30" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A30" t="s">
         <v>229</v>
       </c>
@@ -6563,7 +6578,7 @@
         <v>29</v>
       </c>
     </row>
-    <row r="31" spans="1:16" x14ac:dyDescent="0.3">
+    <row r="31" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A31" t="s">
         <v>236</v>
       </c>
@@ -6613,7 +6628,7 @@
         <v>29</v>
       </c>
     </row>
-    <row r="32" spans="1:16" x14ac:dyDescent="0.3">
+    <row r="32" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A32" t="s">
         <v>243</v>
       </c>
@@ -6663,7 +6678,7 @@
         <v>29</v>
       </c>
     </row>
-    <row r="33" spans="1:16" x14ac:dyDescent="0.3">
+    <row r="33" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A33" t="s">
         <v>251</v>
       </c>
@@ -6713,7 +6728,7 @@
         <v>29</v>
       </c>
     </row>
-    <row r="34" spans="1:16" x14ac:dyDescent="0.3">
+    <row r="34" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A34" t="s">
         <v>258</v>
       </c>
@@ -6763,7 +6778,7 @@
         <v>29</v>
       </c>
     </row>
-    <row r="35" spans="1:16" x14ac:dyDescent="0.3">
+    <row r="35" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A35" t="s">
         <v>266</v>
       </c>
@@ -6813,7 +6828,7 @@
         <v>29</v>
       </c>
     </row>
-    <row r="36" spans="1:16" x14ac:dyDescent="0.3">
+    <row r="36" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A36" t="s">
         <v>274</v>
       </c>
@@ -6863,7 +6878,7 @@
         <v>29</v>
       </c>
     </row>
-    <row r="37" spans="1:16" x14ac:dyDescent="0.3">
+    <row r="37" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A37" t="s">
         <v>282</v>
       </c>
@@ -6913,7 +6928,7 @@
         <v>29</v>
       </c>
     </row>
-    <row r="38" spans="1:16" x14ac:dyDescent="0.3">
+    <row r="38" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A38" t="s">
         <v>290</v>
       </c>
@@ -6963,7 +6978,7 @@
         <v>29</v>
       </c>
     </row>
-    <row r="39" spans="1:16" x14ac:dyDescent="0.3">
+    <row r="39" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A39" t="s">
         <v>298</v>
       </c>
@@ -7013,7 +7028,7 @@
         <v>29</v>
       </c>
     </row>
-    <row r="40" spans="1:16" x14ac:dyDescent="0.3">
+    <row r="40" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A40" t="s">
         <v>306</v>
       </c>
@@ -7063,7 +7078,7 @@
         <v>29</v>
       </c>
     </row>
-    <row r="41" spans="1:16" x14ac:dyDescent="0.3">
+    <row r="41" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A41" t="s">
         <v>313</v>
       </c>
@@ -7113,7 +7128,7 @@
         <v>29</v>
       </c>
     </row>
-    <row r="42" spans="1:16" x14ac:dyDescent="0.3">
+    <row r="42" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A42" t="s">
         <v>321</v>
       </c>
@@ -7163,7 +7178,7 @@
         <v>29</v>
       </c>
     </row>
-    <row r="43" spans="1:16" x14ac:dyDescent="0.3">
+    <row r="43" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A43" t="s">
         <v>329</v>
       </c>
@@ -7213,7 +7228,7 @@
         <v>29</v>
       </c>
     </row>
-    <row r="44" spans="1:16" x14ac:dyDescent="0.3">
+    <row r="44" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A44" t="s">
         <v>337</v>
       </c>
@@ -7263,7 +7278,7 @@
         <v>29</v>
       </c>
     </row>
-    <row r="45" spans="1:16" x14ac:dyDescent="0.3">
+    <row r="45" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A45" t="s">
         <v>345</v>
       </c>
@@ -7313,7 +7328,7 @@
         <v>29</v>
       </c>
     </row>
-    <row r="46" spans="1:16" x14ac:dyDescent="0.3">
+    <row r="46" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A46" t="s">
         <v>352</v>
       </c>
@@ -7363,7 +7378,7 @@
         <v>29</v>
       </c>
     </row>
-    <row r="47" spans="1:16" x14ac:dyDescent="0.3">
+    <row r="47" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A47" t="s">
         <v>360</v>
       </c>
@@ -7413,7 +7428,7 @@
         <v>29</v>
       </c>
     </row>
-    <row r="48" spans="1:16" x14ac:dyDescent="0.3">
+    <row r="48" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A48" t="s">
         <v>367</v>
       </c>
@@ -7463,7 +7478,7 @@
         <v>29</v>
       </c>
     </row>
-    <row r="49" spans="1:18" x14ac:dyDescent="0.3">
+    <row r="49" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A49" t="s">
         <v>375</v>
       </c>
@@ -7513,7 +7528,7 @@
         <v>29</v>
       </c>
     </row>
-    <row r="50" spans="1:18" x14ac:dyDescent="0.3">
+    <row r="50" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A50" t="s">
         <v>382</v>
       </c>
@@ -7563,7 +7578,7 @@
         <v>29</v>
       </c>
     </row>
-    <row r="51" spans="1:18" x14ac:dyDescent="0.3">
+    <row r="51" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A51" t="s">
         <v>389</v>
       </c>
@@ -7613,7 +7628,7 @@
         <v>29</v>
       </c>
     </row>
-    <row r="52" spans="1:18" x14ac:dyDescent="0.3">
+    <row r="52" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A52" t="s">
         <v>397</v>
       </c>
@@ -7663,7 +7678,7 @@
         <v>29</v>
       </c>
     </row>
-    <row r="53" spans="1:18" x14ac:dyDescent="0.3">
+    <row r="53" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A53" t="s">
         <v>404</v>
       </c>
@@ -7713,7 +7728,7 @@
         <v>29</v>
       </c>
     </row>
-    <row r="54" spans="1:18" x14ac:dyDescent="0.3">
+    <row r="54" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A54" t="s">
         <v>412</v>
       </c>
@@ -7763,7 +7778,7 @@
         <v>29</v>
       </c>
     </row>
-    <row r="55" spans="1:18" x14ac:dyDescent="0.3">
+    <row r="55" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A55" t="s">
         <v>418</v>
       </c>
@@ -7813,7 +7828,7 @@
         <v>29</v>
       </c>
     </row>
-    <row r="56" spans="1:18" x14ac:dyDescent="0.3">
+    <row r="56" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A56" t="s">
         <v>424</v>
       </c>
@@ -7863,7 +7878,7 @@
         <v>29</v>
       </c>
     </row>
-    <row r="57" spans="1:18" x14ac:dyDescent="0.3">
+    <row r="57" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A57" t="s">
         <v>431</v>
       </c>
@@ -7913,7 +7928,7 @@
         <v>29</v>
       </c>
     </row>
-    <row r="58" spans="1:18" x14ac:dyDescent="0.3">
+    <row r="58" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A58" t="s">
         <v>438</v>
       </c>
@@ -7963,7 +7978,7 @@
         <v>29</v>
       </c>
     </row>
-    <row r="59" spans="1:18" x14ac:dyDescent="0.3">
+    <row r="59" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A59" t="s">
         <v>446</v>
       </c>
@@ -8013,7 +8028,7 @@
         <v>29</v>
       </c>
     </row>
-    <row r="60" spans="1:18" x14ac:dyDescent="0.3">
+    <row r="60" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A60" t="s">
         <v>453</v>
       </c>
@@ -8063,7 +8078,7 @@
         <v>29</v>
       </c>
     </row>
-    <row r="61" spans="1:18" x14ac:dyDescent="0.3">
+    <row r="61" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A61" t="s">
         <v>461</v>
       </c>
@@ -8113,7 +8128,7 @@
         <v>29</v>
       </c>
     </row>
-    <row r="62" spans="1:18" x14ac:dyDescent="0.3">
+    <row r="62" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A62" t="s">
         <v>469</v>
       </c>
@@ -8163,7 +8178,7 @@
         <v>29</v>
       </c>
     </row>
-    <row r="63" spans="1:18" x14ac:dyDescent="0.3">
+    <row r="63" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A63" t="s">
         <v>476</v>
       </c>
@@ -8213,7 +8228,7 @@
         <v>29</v>
       </c>
     </row>
-    <row r="64" spans="1:18" x14ac:dyDescent="0.3">
+    <row r="64" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A64" t="s">
         <v>483</v>
       </c>
@@ -8266,7 +8281,7 @@
         <v>87</v>
       </c>
     </row>
-    <row r="65" spans="1:16" x14ac:dyDescent="0.3">
+    <row r="65" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A65" t="s">
         <v>489</v>
       </c>
@@ -8316,7 +8331,7 @@
         <v>29</v>
       </c>
     </row>
-    <row r="66" spans="1:16" x14ac:dyDescent="0.3">
+    <row r="66" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A66" t="s">
         <v>497</v>
       </c>
@@ -8366,7 +8381,7 @@
         <v>29</v>
       </c>
     </row>
-    <row r="67" spans="1:16" x14ac:dyDescent="0.3">
+    <row r="67" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A67" t="s">
         <v>504</v>
       </c>
@@ -8416,7 +8431,7 @@
         <v>29</v>
       </c>
     </row>
-    <row r="68" spans="1:16" x14ac:dyDescent="0.3">
+    <row r="68" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A68" t="s">
         <v>512</v>
       </c>
@@ -8466,7 +8481,7 @@
         <v>29</v>
       </c>
     </row>
-    <row r="69" spans="1:16" x14ac:dyDescent="0.3">
+    <row r="69" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A69" t="s">
         <v>520</v>
       </c>
@@ -8516,7 +8531,7 @@
         <v>29</v>
       </c>
     </row>
-    <row r="70" spans="1:16" x14ac:dyDescent="0.3">
+    <row r="70" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A70" t="s">
         <v>528</v>
       </c>
@@ -8566,7 +8581,7 @@
         <v>29</v>
       </c>
     </row>
-    <row r="71" spans="1:16" x14ac:dyDescent="0.3">
+    <row r="71" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A71" t="s">
         <v>536</v>
       </c>
@@ -8616,7 +8631,7 @@
         <v>29</v>
       </c>
     </row>
-    <row r="72" spans="1:16" x14ac:dyDescent="0.3">
+    <row r="72" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A72" t="s">
         <v>543</v>
       </c>
@@ -8666,7 +8681,7 @@
         <v>29</v>
       </c>
     </row>
-    <row r="73" spans="1:16" x14ac:dyDescent="0.3">
+    <row r="73" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A73" t="s">
         <v>550</v>
       </c>
@@ -8716,7 +8731,7 @@
         <v>29</v>
       </c>
     </row>
-    <row r="74" spans="1:16" x14ac:dyDescent="0.3">
+    <row r="74" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A74" t="s">
         <v>557</v>
       </c>
@@ -8766,7 +8781,7 @@
         <v>29</v>
       </c>
     </row>
-    <row r="75" spans="1:16" x14ac:dyDescent="0.3">
+    <row r="75" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A75" t="s">
         <v>564</v>
       </c>
@@ -8816,7 +8831,7 @@
         <v>29</v>
       </c>
     </row>
-    <row r="76" spans="1:16" x14ac:dyDescent="0.3">
+    <row r="76" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A76" t="s">
         <v>572</v>
       </c>
@@ -8866,7 +8881,7 @@
         <v>29</v>
       </c>
     </row>
-    <row r="77" spans="1:16" x14ac:dyDescent="0.3">
+    <row r="77" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A77" t="s">
         <v>580</v>
       </c>
@@ -8916,7 +8931,7 @@
         <v>29</v>
       </c>
     </row>
-    <row r="78" spans="1:16" x14ac:dyDescent="0.3">
+    <row r="78" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A78" t="s">
         <v>587</v>
       </c>
@@ -8966,7 +8981,7 @@
         <v>29</v>
       </c>
     </row>
-    <row r="79" spans="1:16" x14ac:dyDescent="0.3">
+    <row r="79" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A79" t="s">
         <v>594</v>
       </c>
@@ -9016,7 +9031,7 @@
         <v>29</v>
       </c>
     </row>
-    <row r="80" spans="1:16" x14ac:dyDescent="0.3">
+    <row r="80" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A80" t="s">
         <v>601</v>
       </c>
@@ -9066,7 +9081,7 @@
         <v>29</v>
       </c>
     </row>
-    <row r="81" spans="1:18" x14ac:dyDescent="0.3">
+    <row r="81" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A81" t="s">
         <v>608</v>
       </c>
@@ -9116,7 +9131,7 @@
         <v>29</v>
       </c>
     </row>
-    <row r="82" spans="1:18" x14ac:dyDescent="0.3">
+    <row r="82" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A82" t="s">
         <v>614</v>
       </c>
@@ -9166,7 +9181,7 @@
         <v>29</v>
       </c>
     </row>
-    <row r="83" spans="1:18" x14ac:dyDescent="0.3">
+    <row r="83" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A83" t="s">
         <v>621</v>
       </c>
@@ -9216,7 +9231,7 @@
         <v>29</v>
       </c>
     </row>
-    <row r="84" spans="1:18" x14ac:dyDescent="0.3">
+    <row r="84" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A84" t="s">
         <v>628</v>
       </c>
@@ -9266,7 +9281,7 @@
         <v>29</v>
       </c>
     </row>
-    <row r="85" spans="1:18" x14ac:dyDescent="0.3">
+    <row r="85" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A85" t="s">
         <v>635</v>
       </c>
@@ -9316,7 +9331,7 @@
         <v>29</v>
       </c>
     </row>
-    <row r="86" spans="1:18" x14ac:dyDescent="0.3">
+    <row r="86" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A86" t="s">
         <v>642</v>
       </c>
@@ -9366,7 +9381,7 @@
         <v>651</v>
       </c>
     </row>
-    <row r="87" spans="1:18" x14ac:dyDescent="0.3">
+    <row r="87" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A87" t="s">
         <v>652</v>
       </c>
@@ -9416,7 +9431,7 @@
         <v>29</v>
       </c>
     </row>
-    <row r="88" spans="1:18" x14ac:dyDescent="0.3">
+    <row r="88" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A88" t="s">
         <v>659</v>
       </c>
@@ -9466,7 +9481,7 @@
         <v>29</v>
       </c>
     </row>
-    <row r="89" spans="1:18" x14ac:dyDescent="0.3">
+    <row r="89" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A89" t="s">
         <v>667</v>
       </c>
@@ -9516,7 +9531,7 @@
         <v>29</v>
       </c>
     </row>
-    <row r="90" spans="1:18" x14ac:dyDescent="0.3">
+    <row r="90" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A90" t="s">
         <v>675</v>
       </c>
@@ -9557,7 +9572,7 @@
         <v>29</v>
       </c>
     </row>
-    <row r="91" spans="1:18" x14ac:dyDescent="0.3">
+    <row r="91" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A91" t="s">
         <v>680</v>
       </c>
@@ -9610,7 +9625,7 @@
         <v>87</v>
       </c>
     </row>
-    <row r="92" spans="1:18" x14ac:dyDescent="0.3">
+    <row r="92" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A92" t="s">
         <v>686</v>
       </c>
@@ -9660,7 +9675,7 @@
         <v>29</v>
       </c>
     </row>
-    <row r="93" spans="1:18" x14ac:dyDescent="0.3">
+    <row r="93" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A93" t="s">
         <v>693</v>
       </c>
@@ -9713,7 +9728,7 @@
         <v>87</v>
       </c>
     </row>
-    <row r="94" spans="1:18" x14ac:dyDescent="0.3">
+    <row r="94" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A94" t="s">
         <v>700</v>
       </c>
@@ -9763,7 +9778,7 @@
         <v>29</v>
       </c>
     </row>
-    <row r="95" spans="1:18" x14ac:dyDescent="0.3">
+    <row r="95" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A95" t="s">
         <v>707</v>
       </c>
@@ -9813,7 +9828,7 @@
         <v>29</v>
       </c>
     </row>
-    <row r="96" spans="1:18" x14ac:dyDescent="0.3">
+    <row r="96" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A96" t="s">
         <v>713</v>
       </c>
@@ -9863,7 +9878,7 @@
         <v>29</v>
       </c>
     </row>
-    <row r="97" spans="1:16" x14ac:dyDescent="0.3">
+    <row r="97" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A97" t="s">
         <v>720</v>
       </c>
@@ -9913,7 +9928,7 @@
         <v>29</v>
       </c>
     </row>
-    <row r="98" spans="1:16" x14ac:dyDescent="0.3">
+    <row r="98" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A98" t="s">
         <v>728</v>
       </c>
@@ -9963,7 +9978,7 @@
         <v>29</v>
       </c>
     </row>
-    <row r="99" spans="1:16" x14ac:dyDescent="0.3">
+    <row r="99" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A99" t="s">
         <v>734</v>
       </c>
@@ -10013,7 +10028,7 @@
         <v>29</v>
       </c>
     </row>
-    <row r="100" spans="1:16" x14ac:dyDescent="0.3">
+    <row r="100" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A100" t="s">
         <v>679</v>
       </c>
@@ -10063,7 +10078,7 @@
         <v>29</v>
       </c>
     </row>
-    <row r="101" spans="1:16" x14ac:dyDescent="0.3">
+    <row r="101" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A101" t="s">
         <v>749</v>
       </c>
@@ -10113,7 +10128,7 @@
         <v>29</v>
       </c>
     </row>
-    <row r="102" spans="1:16" x14ac:dyDescent="0.3">
+    <row r="102" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A102" t="s">
         <v>756</v>
       </c>
@@ -10163,7 +10178,7 @@
         <v>29</v>
       </c>
     </row>
-    <row r="103" spans="1:16" x14ac:dyDescent="0.3">
+    <row r="103" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A103" t="s">
         <v>764</v>
       </c>
@@ -10213,7 +10228,7 @@
         <v>29</v>
       </c>
     </row>
-    <row r="104" spans="1:16" x14ac:dyDescent="0.3">
+    <row r="104" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A104" t="s">
         <v>771</v>
       </c>
@@ -10263,7 +10278,7 @@
         <v>29</v>
       </c>
     </row>
-    <row r="105" spans="1:16" x14ac:dyDescent="0.3">
+    <row r="105" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A105" t="s">
         <v>779</v>
       </c>
@@ -10313,7 +10328,7 @@
         <v>29</v>
       </c>
     </row>
-    <row r="106" spans="1:16" x14ac:dyDescent="0.3">
+    <row r="106" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A106" t="s">
         <v>786</v>
       </c>
@@ -10363,7 +10378,7 @@
         <v>29</v>
       </c>
     </row>
-    <row r="107" spans="1:16" x14ac:dyDescent="0.3">
+    <row r="107" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A107" t="s">
         <v>794</v>
       </c>
@@ -10413,7 +10428,7 @@
         <v>29</v>
       </c>
     </row>
-    <row r="108" spans="1:16" x14ac:dyDescent="0.3">
+    <row r="108" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A108" t="s">
         <v>801</v>
       </c>
@@ -10463,7 +10478,7 @@
         <v>29</v>
       </c>
     </row>
-    <row r="109" spans="1:16" x14ac:dyDescent="0.3">
+    <row r="109" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A109" t="s">
         <v>808</v>
       </c>
@@ -10513,7 +10528,7 @@
         <v>29</v>
       </c>
     </row>
-    <row r="110" spans="1:16" x14ac:dyDescent="0.3">
+    <row r="110" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A110" t="s">
         <v>814</v>
       </c>
@@ -10563,7 +10578,7 @@
         <v>29</v>
       </c>
     </row>
-    <row r="111" spans="1:16" x14ac:dyDescent="0.3">
+    <row r="111" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A111" t="s">
         <v>821</v>
       </c>
@@ -10613,7 +10628,7 @@
         <v>29</v>
       </c>
     </row>
-    <row r="112" spans="1:16" x14ac:dyDescent="0.3">
+    <row r="112" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A112" t="s">
         <v>828</v>
       </c>
@@ -10663,7 +10678,7 @@
         <v>29</v>
       </c>
     </row>
-    <row r="113" spans="1:16" x14ac:dyDescent="0.3">
+    <row r="113" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A113" t="s">
         <v>834</v>
       </c>
@@ -10713,7 +10728,7 @@
         <v>29</v>
       </c>
     </row>
-    <row r="114" spans="1:16" x14ac:dyDescent="0.3">
+    <row r="114" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A114" t="s">
         <v>842</v>
       </c>
@@ -10763,7 +10778,7 @@
         <v>29</v>
       </c>
     </row>
-    <row r="115" spans="1:16" x14ac:dyDescent="0.3">
+    <row r="115" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A115" t="s">
         <v>849</v>
       </c>
@@ -10813,7 +10828,7 @@
         <v>29</v>
       </c>
     </row>
-    <row r="116" spans="1:16" x14ac:dyDescent="0.3">
+    <row r="116" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A116" t="s">
         <v>856</v>
       </c>
@@ -10863,7 +10878,7 @@
         <v>29</v>
       </c>
     </row>
-    <row r="117" spans="1:16" x14ac:dyDescent="0.3">
+    <row r="117" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A117" t="s">
         <v>864</v>
       </c>
@@ -10913,7 +10928,7 @@
         <v>29</v>
       </c>
     </row>
-    <row r="118" spans="1:16" x14ac:dyDescent="0.3">
+    <row r="118" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A118" t="s">
         <v>871</v>
       </c>
@@ -10963,7 +10978,7 @@
         <v>29</v>
       </c>
     </row>
-    <row r="119" spans="1:16" x14ac:dyDescent="0.3">
+    <row r="119" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A119" t="s">
         <v>877</v>
       </c>
@@ -11013,7 +11028,7 @@
         <v>29</v>
       </c>
     </row>
-    <row r="120" spans="1:16" x14ac:dyDescent="0.3">
+    <row r="120" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A120" t="s">
         <v>882</v>
       </c>
@@ -11063,7 +11078,7 @@
         <v>29</v>
       </c>
     </row>
-    <row r="121" spans="1:16" x14ac:dyDescent="0.3">
+    <row r="121" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A121" t="s">
         <v>888</v>
       </c>
@@ -11113,7 +11128,7 @@
         <v>29</v>
       </c>
     </row>
-    <row r="122" spans="1:16" x14ac:dyDescent="0.3">
+    <row r="122" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A122" t="s">
         <v>896</v>
       </c>
@@ -11163,7 +11178,7 @@
         <v>29</v>
       </c>
     </row>
-    <row r="123" spans="1:16" x14ac:dyDescent="0.3">
+    <row r="123" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A123" t="s">
         <v>902</v>
       </c>
@@ -11213,7 +11228,7 @@
         <v>29</v>
       </c>
     </row>
-    <row r="124" spans="1:16" x14ac:dyDescent="0.3">
+    <row r="124" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A124" t="s">
         <v>909</v>
       </c>
@@ -11263,7 +11278,7 @@
         <v>29</v>
       </c>
     </row>
-    <row r="125" spans="1:16" x14ac:dyDescent="0.3">
+    <row r="125" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A125" t="s">
         <v>916</v>
       </c>
@@ -11313,7 +11328,7 @@
         <v>29</v>
       </c>
     </row>
-    <row r="126" spans="1:16" x14ac:dyDescent="0.3">
+    <row r="126" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A126" t="s">
         <v>921</v>
       </c>
@@ -11363,7 +11378,7 @@
         <v>29</v>
       </c>
     </row>
-    <row r="127" spans="1:16" x14ac:dyDescent="0.3">
+    <row r="127" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A127" t="s">
         <v>928</v>
       </c>
@@ -11413,7 +11428,7 @@
         <v>29</v>
       </c>
     </row>
-    <row r="128" spans="1:16" x14ac:dyDescent="0.3">
+    <row r="128" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A128" t="s">
         <v>935</v>
       </c>
@@ -11463,7 +11478,7 @@
         <v>29</v>
       </c>
     </row>
-    <row r="129" spans="1:16" x14ac:dyDescent="0.3">
+    <row r="129" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A129" t="s">
         <v>942</v>
       </c>
@@ -11513,7 +11528,7 @@
         <v>29</v>
       </c>
     </row>
-    <row r="130" spans="1:16" x14ac:dyDescent="0.3">
+    <row r="130" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A130" t="s">
         <v>950</v>
       </c>
@@ -11563,7 +11578,7 @@
         <v>29</v>
       </c>
     </row>
-    <row r="131" spans="1:16" x14ac:dyDescent="0.3">
+    <row r="131" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A131" t="s">
         <v>957</v>
       </c>
@@ -11613,7 +11628,7 @@
         <v>29</v>
       </c>
     </row>
-    <row r="132" spans="1:16" x14ac:dyDescent="0.3">
+    <row r="132" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A132" t="s">
         <v>964</v>
       </c>
@@ -11663,7 +11678,7 @@
         <v>29</v>
       </c>
     </row>
-    <row r="133" spans="1:16" x14ac:dyDescent="0.3">
+    <row r="133" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A133" t="s">
         <v>971</v>
       </c>
@@ -11713,7 +11728,7 @@
         <v>29</v>
       </c>
     </row>
-    <row r="134" spans="1:16" x14ac:dyDescent="0.3">
+    <row r="134" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A134" t="s">
         <v>976</v>
       </c>
@@ -11763,7 +11778,7 @@
         <v>29</v>
       </c>
     </row>
-    <row r="135" spans="1:16" x14ac:dyDescent="0.3">
+    <row r="135" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A135" t="s">
         <v>982</v>
       </c>
@@ -11813,7 +11828,7 @@
         <v>29</v>
       </c>
     </row>
-    <row r="136" spans="1:16" x14ac:dyDescent="0.3">
+    <row r="136" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A136" t="s">
         <v>989</v>
       </c>
@@ -11863,7 +11878,7 @@
         <v>29</v>
       </c>
     </row>
-    <row r="137" spans="1:16" x14ac:dyDescent="0.3">
+    <row r="137" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A137" t="s">
         <v>996</v>
       </c>
@@ -11913,7 +11928,7 @@
         <v>29</v>
       </c>
     </row>
-    <row r="138" spans="1:16" x14ac:dyDescent="0.3">
+    <row r="138" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A138" t="s">
         <v>1003</v>
       </c>
@@ -11963,7 +11978,7 @@
         <v>29</v>
       </c>
     </row>
-    <row r="139" spans="1:16" x14ac:dyDescent="0.3">
+    <row r="139" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A139" t="s">
         <v>1011</v>
       </c>
@@ -12013,7 +12028,7 @@
         <v>29</v>
       </c>
     </row>
-    <row r="140" spans="1:16" x14ac:dyDescent="0.3">
+    <row r="140" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A140" t="s">
         <v>1018</v>
       </c>
@@ -12063,7 +12078,7 @@
         <v>29</v>
       </c>
     </row>
-    <row r="141" spans="1:16" x14ac:dyDescent="0.3">
+    <row r="141" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A141" t="s">
         <v>1025</v>
       </c>
@@ -12113,7 +12128,7 @@
         <v>29</v>
       </c>
     </row>
-    <row r="142" spans="1:16" x14ac:dyDescent="0.3">
+    <row r="142" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A142" t="s">
         <v>1031</v>
       </c>
@@ -12163,7 +12178,7 @@
         <v>29</v>
       </c>
     </row>
-    <row r="143" spans="1:16" x14ac:dyDescent="0.3">
+    <row r="143" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A143" t="s">
         <v>1038</v>
       </c>
@@ -12213,7 +12228,7 @@
         <v>29</v>
       </c>
     </row>
-    <row r="144" spans="1:16" x14ac:dyDescent="0.3">
+    <row r="144" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A144" t="s">
         <v>1044</v>
       </c>
@@ -12263,7 +12278,7 @@
         <v>29</v>
       </c>
     </row>
-    <row r="145" spans="1:17" x14ac:dyDescent="0.3">
+    <row r="145" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A145" t="s">
         <v>1050</v>
       </c>
@@ -12313,7 +12328,7 @@
         <v>29</v>
       </c>
     </row>
-    <row r="146" spans="1:17" x14ac:dyDescent="0.3">
+    <row r="146" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A146" t="s">
         <v>1057</v>
       </c>
@@ -12366,7 +12381,7 @@
         <v>1065</v>
       </c>
     </row>
-    <row r="147" spans="1:17" x14ac:dyDescent="0.3">
+    <row r="147" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A147" t="s">
         <v>1066</v>
       </c>
@@ -12416,7 +12431,7 @@
         <v>29</v>
       </c>
     </row>
-    <row r="148" spans="1:17" x14ac:dyDescent="0.3">
+    <row r="148" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A148" t="s">
         <v>1073</v>
       </c>
@@ -12466,7 +12481,7 @@
         <v>29</v>
       </c>
     </row>
-    <row r="149" spans="1:17" x14ac:dyDescent="0.3">
+    <row r="149" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A149" t="s">
         <v>1078</v>
       </c>
@@ -12516,7 +12531,7 @@
         <v>29</v>
       </c>
     </row>
-    <row r="150" spans="1:17" x14ac:dyDescent="0.3">
+    <row r="150" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A150" t="s">
         <v>1086</v>
       </c>
@@ -12566,7 +12581,7 @@
         <v>29</v>
       </c>
     </row>
-    <row r="151" spans="1:17" x14ac:dyDescent="0.3">
+    <row r="151" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A151" t="s">
         <v>1094</v>
       </c>
@@ -12616,7 +12631,7 @@
         <v>29</v>
       </c>
     </row>
-    <row r="152" spans="1:17" x14ac:dyDescent="0.3">
+    <row r="152" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A152" t="s">
         <v>1101</v>
       </c>
@@ -12666,7 +12681,7 @@
         <v>29</v>
       </c>
     </row>
-    <row r="153" spans="1:17" x14ac:dyDescent="0.3">
+    <row r="153" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A153" t="s">
         <v>1109</v>
       </c>
@@ -12716,7 +12731,7 @@
         <v>29</v>
       </c>
     </row>
-    <row r="154" spans="1:17" x14ac:dyDescent="0.3">
+    <row r="154" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A154" t="s">
         <v>1116</v>
       </c>
@@ -12766,7 +12781,7 @@
         <v>29</v>
       </c>
     </row>
-    <row r="155" spans="1:17" x14ac:dyDescent="0.3">
+    <row r="155" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A155" t="s">
         <v>1121</v>
       </c>
@@ -12816,7 +12831,7 @@
         <v>29</v>
       </c>
     </row>
-    <row r="156" spans="1:17" x14ac:dyDescent="0.3">
+    <row r="156" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A156" t="s">
         <v>1129</v>
       </c>
@@ -12866,7 +12881,7 @@
         <v>29</v>
       </c>
     </row>
-    <row r="157" spans="1:17" x14ac:dyDescent="0.3">
+    <row r="157" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A157" t="s">
         <v>1136</v>
       </c>
@@ -12916,7 +12931,7 @@
         <v>29</v>
       </c>
     </row>
-    <row r="158" spans="1:17" x14ac:dyDescent="0.3">
+    <row r="158" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A158" t="s">
         <v>1143</v>
       </c>
@@ -12966,7 +12981,7 @@
         <v>29</v>
       </c>
     </row>
-    <row r="159" spans="1:17" x14ac:dyDescent="0.3">
+    <row r="159" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A159" t="s">
         <v>1149</v>
       </c>
@@ -13016,7 +13031,7 @@
         <v>29</v>
       </c>
     </row>
-    <row r="160" spans="1:17" x14ac:dyDescent="0.3">
+    <row r="160" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A160" t="s">
         <v>1155</v>
       </c>
@@ -13066,7 +13081,7 @@
         <v>29</v>
       </c>
     </row>
-    <row r="161" spans="1:18" x14ac:dyDescent="0.3">
+    <row r="161" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A161" t="s">
         <v>1161</v>
       </c>
@@ -13116,7 +13131,7 @@
         <v>29</v>
       </c>
     </row>
-    <row r="162" spans="1:18" x14ac:dyDescent="0.3">
+    <row r="162" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A162" t="s">
         <v>1168</v>
       </c>
@@ -13166,7 +13181,7 @@
         <v>29</v>
       </c>
     </row>
-    <row r="163" spans="1:18" x14ac:dyDescent="0.3">
+    <row r="163" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A163" t="s">
         <v>1174</v>
       </c>
@@ -13216,7 +13231,7 @@
         <v>29</v>
       </c>
     </row>
-    <row r="164" spans="1:18" x14ac:dyDescent="0.3">
+    <row r="164" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A164" t="s">
         <v>1180</v>
       </c>
@@ -13266,7 +13281,7 @@
         <v>29</v>
       </c>
     </row>
-    <row r="165" spans="1:18" x14ac:dyDescent="0.3">
+    <row r="165" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A165" t="s">
         <v>1186</v>
       </c>
@@ -13316,7 +13331,7 @@
         <v>29</v>
       </c>
     </row>
-    <row r="166" spans="1:18" x14ac:dyDescent="0.3">
+    <row r="166" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A166" t="s">
         <v>1192</v>
       </c>
@@ -13366,7 +13381,7 @@
         <v>29</v>
       </c>
     </row>
-    <row r="167" spans="1:18" x14ac:dyDescent="0.3">
+    <row r="167" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A167" t="s">
         <v>1200</v>
       </c>
@@ -13416,7 +13431,7 @@
         <v>29</v>
       </c>
     </row>
-    <row r="168" spans="1:18" x14ac:dyDescent="0.3">
+    <row r="168" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A168" t="s">
         <v>1208</v>
       </c>
@@ -13466,7 +13481,7 @@
         <v>29</v>
       </c>
     </row>
-    <row r="169" spans="1:18" x14ac:dyDescent="0.3">
+    <row r="169" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A169" t="s">
         <v>1215</v>
       </c>
@@ -13516,7 +13531,7 @@
         <v>29</v>
       </c>
     </row>
-    <row r="170" spans="1:18" x14ac:dyDescent="0.3">
+    <row r="170" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A170" t="s">
         <v>1223</v>
       </c>
@@ -13566,7 +13581,7 @@
         <v>29</v>
       </c>
     </row>
-    <row r="171" spans="1:18" x14ac:dyDescent="0.3">
+    <row r="171" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A171" t="s">
         <v>1229</v>
       </c>
@@ -13616,7 +13631,7 @@
         <v>29</v>
       </c>
     </row>
-    <row r="172" spans="1:18" x14ac:dyDescent="0.3">
+    <row r="172" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A172" t="s">
         <v>1236</v>
       </c>
@@ -13666,7 +13681,7 @@
         <v>29</v>
       </c>
     </row>
-    <row r="173" spans="1:18" x14ac:dyDescent="0.3">
+    <row r="173" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A173" t="s">
         <v>1242</v>
       </c>
@@ -13716,7 +13731,7 @@
         <v>29</v>
       </c>
     </row>
-    <row r="174" spans="1:18" x14ac:dyDescent="0.3">
+    <row r="174" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A174" t="s">
         <v>1248</v>
       </c>
@@ -13766,7 +13781,7 @@
         <v>29</v>
       </c>
     </row>
-    <row r="175" spans="1:18" x14ac:dyDescent="0.3">
+    <row r="175" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A175" t="s">
         <v>1254</v>
       </c>
@@ -13819,7 +13834,7 @@
         <v>87</v>
       </c>
     </row>
-    <row r="176" spans="1:18" x14ac:dyDescent="0.3">
+    <row r="176" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A176" t="s">
         <v>1261</v>
       </c>
@@ -13869,7 +13884,7 @@
         <v>29</v>
       </c>
     </row>
-    <row r="177" spans="1:18" x14ac:dyDescent="0.3">
+    <row r="177" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A177" t="s">
         <v>1268</v>
       </c>
@@ -13919,7 +13934,7 @@
         <v>29</v>
       </c>
     </row>
-    <row r="178" spans="1:18" x14ac:dyDescent="0.3">
+    <row r="178" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A178" t="s">
         <v>1275</v>
       </c>
@@ -13969,7 +13984,7 @@
         <v>29</v>
       </c>
     </row>
-    <row r="179" spans="1:18" x14ac:dyDescent="0.3">
+    <row r="179" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A179" t="s">
         <v>1282</v>
       </c>
@@ -14019,7 +14034,7 @@
         <v>29</v>
       </c>
     </row>
-    <row r="180" spans="1:18" x14ac:dyDescent="0.3">
+    <row r="180" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A180" t="s">
         <v>1288</v>
       </c>
@@ -14069,7 +14084,7 @@
         <v>29</v>
       </c>
     </row>
-    <row r="181" spans="1:18" x14ac:dyDescent="0.3">
+    <row r="181" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A181" t="s">
         <v>1295</v>
       </c>
@@ -14119,7 +14134,7 @@
         <v>29</v>
       </c>
     </row>
-    <row r="182" spans="1:18" x14ac:dyDescent="0.3">
+    <row r="182" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A182" t="s">
         <v>1303</v>
       </c>
@@ -14169,7 +14184,7 @@
         <v>29</v>
       </c>
     </row>
-    <row r="183" spans="1:18" x14ac:dyDescent="0.3">
+    <row r="183" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A183" t="s">
         <v>1310</v>
       </c>
@@ -14219,7 +14234,7 @@
         <v>29</v>
       </c>
     </row>
-    <row r="184" spans="1:18" x14ac:dyDescent="0.3">
+    <row r="184" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A184" t="s">
         <v>1316</v>
       </c>
@@ -14272,7 +14287,7 @@
         <v>87</v>
       </c>
     </row>
-    <row r="185" spans="1:18" x14ac:dyDescent="0.3">
+    <row r="185" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A185" t="s">
         <v>1321</v>
       </c>
@@ -14322,7 +14337,7 @@
         <v>29</v>
       </c>
     </row>
-    <row r="186" spans="1:18" x14ac:dyDescent="0.3">
+    <row r="186" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A186" t="s">
         <v>1328</v>
       </c>
@@ -14372,7 +14387,7 @@
         <v>29</v>
       </c>
     </row>
-    <row r="187" spans="1:18" x14ac:dyDescent="0.3">
+    <row r="187" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A187" t="s">
         <v>1335</v>
       </c>
@@ -14422,7 +14437,7 @@
         <v>29</v>
       </c>
     </row>
-    <row r="188" spans="1:18" x14ac:dyDescent="0.3">
+    <row r="188" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A188" t="s">
         <v>1341</v>
       </c>
@@ -14472,7 +14487,7 @@
         <v>29</v>
       </c>
     </row>
-    <row r="189" spans="1:18" x14ac:dyDescent="0.3">
+    <row r="189" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A189" t="s">
         <v>1347</v>
       </c>
@@ -14522,7 +14537,7 @@
         <v>29</v>
       </c>
     </row>
-    <row r="190" spans="1:18" x14ac:dyDescent="0.3">
+    <row r="190" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A190" t="s">
         <v>1354</v>
       </c>
@@ -14575,7 +14590,7 @@
         <v>87</v>
       </c>
     </row>
-    <row r="191" spans="1:18" x14ac:dyDescent="0.3">
+    <row r="191" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A191" t="s">
         <v>1359</v>
       </c>
@@ -14625,7 +14640,7 @@
         <v>29</v>
       </c>
     </row>
-    <row r="192" spans="1:18" x14ac:dyDescent="0.3">
+    <row r="192" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A192" t="s">
         <v>1366</v>
       </c>
@@ -14675,7 +14690,7 @@
         <v>29</v>
       </c>
     </row>
-    <row r="193" spans="1:18" x14ac:dyDescent="0.3">
+    <row r="193" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A193" t="s">
         <v>1374</v>
       </c>
@@ -14725,7 +14740,7 @@
         <v>29</v>
       </c>
     </row>
-    <row r="194" spans="1:18" x14ac:dyDescent="0.3">
+    <row r="194" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A194" t="s">
         <v>1380</v>
       </c>
@@ -14775,7 +14790,7 @@
         <v>29</v>
       </c>
     </row>
-    <row r="195" spans="1:18" x14ac:dyDescent="0.3">
+    <row r="195" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A195" t="s">
         <v>1385</v>
       </c>
@@ -14825,7 +14840,7 @@
         <v>29</v>
       </c>
     </row>
-    <row r="196" spans="1:18" x14ac:dyDescent="0.3">
+    <row r="196" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A196" t="s">
         <v>1391</v>
       </c>
@@ -14875,7 +14890,7 @@
         <v>29</v>
       </c>
     </row>
-    <row r="197" spans="1:18" x14ac:dyDescent="0.3">
+    <row r="197" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A197" t="s">
         <v>1398</v>
       </c>
@@ -14892,7 +14907,7 @@
         <v>1402</v>
       </c>
     </row>
-    <row r="198" spans="1:18" x14ac:dyDescent="0.3">
+    <row r="198" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A198" t="s">
         <v>1403</v>
       </c>
@@ -14930,7 +14945,7 @@
         <v>1402</v>
       </c>
     </row>
-    <row r="199" spans="1:18" x14ac:dyDescent="0.3">
+    <row r="199" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A199" t="s">
         <v>1408</v>
       </c>
@@ -14962,7 +14977,7 @@
         <v>1411</v>
       </c>
     </row>
-    <row r="200" spans="1:18" x14ac:dyDescent="0.3">
+    <row r="200" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A200" t="s">
         <v>1412</v>
       </c>
@@ -14997,7 +15012,7 @@
         <v>1415</v>
       </c>
     </row>
-    <row r="201" spans="1:18" x14ac:dyDescent="0.3">
+    <row r="201" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A201" t="s">
         <v>35</v>
       </c>
@@ -15047,7 +15062,7 @@
         <v>29</v>
       </c>
     </row>
-    <row r="202" spans="1:18" x14ac:dyDescent="0.3">
+    <row r="202" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A202" t="s">
         <v>49</v>
       </c>
@@ -15088,7 +15103,7 @@
         <v>465</v>
       </c>
     </row>
-    <row r="203" spans="1:18" x14ac:dyDescent="0.3">
+    <row r="203" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A203" t="s">
         <v>99</v>
       </c>
@@ -15129,7 +15144,7 @@
         <v>650</v>
       </c>
     </row>
-    <row r="204" spans="1:18" x14ac:dyDescent="0.3">
+    <row r="204" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A204" t="s">
         <v>1429</v>
       </c>
@@ -15170,7 +15185,7 @@
         <v>968</v>
       </c>
     </row>
-    <row r="205" spans="1:18" x14ac:dyDescent="0.3">
+    <row r="205" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A205" t="s">
         <v>1433</v>
       </c>
@@ -15211,7 +15226,7 @@
         <v>968</v>
       </c>
     </row>
-    <row r="206" spans="1:18" x14ac:dyDescent="0.3">
+    <row r="206" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A206" t="s">
         <v>144</v>
       </c>
@@ -15252,7 +15267,7 @@
         <v>1035</v>
       </c>
     </row>
-    <row r="207" spans="1:18" x14ac:dyDescent="0.3">
+    <row r="207" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A207" t="s">
         <v>1440</v>
       </c>
@@ -15293,7 +15308,7 @@
         <v>1035</v>
       </c>
     </row>
-    <row r="208" spans="1:18" x14ac:dyDescent="0.3">
+    <row r="208" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A208" t="s">
         <v>1444</v>
       </c>
@@ -15334,7 +15349,7 @@
         <v>371</v>
       </c>
     </row>
-    <row r="209" spans="1:17" x14ac:dyDescent="0.3">
+    <row r="209" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A209" t="s">
         <v>219</v>
       </c>
@@ -15375,7 +15390,7 @@
         <v>1035</v>
       </c>
     </row>
-    <row r="210" spans="1:17" x14ac:dyDescent="0.3">
+    <row r="210" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A210" t="s">
         <v>1450</v>
       </c>
@@ -15416,7 +15431,7 @@
         <v>465</v>
       </c>
     </row>
-    <row r="211" spans="1:17" x14ac:dyDescent="0.3">
+    <row r="211" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A211" t="s">
         <v>1454</v>
       </c>
@@ -15435,6 +15450,9 @@
       <c r="I211" t="s">
         <v>1457</v>
       </c>
+      <c r="J211" t="s">
+        <v>1558</v>
+      </c>
       <c r="K211" t="s">
         <v>1457</v>
       </c>
@@ -15457,7 +15475,7 @@
         <v>465</v>
       </c>
     </row>
-    <row r="212" spans="1:17" x14ac:dyDescent="0.3">
+    <row r="212" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A212" t="s">
         <v>373</v>
       </c>
@@ -15498,7 +15516,7 @@
         <v>465</v>
       </c>
     </row>
-    <row r="213" spans="1:17" x14ac:dyDescent="0.3">
+    <row r="213" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A213" t="s">
         <v>1461</v>
       </c>
@@ -15539,7 +15557,7 @@
         <v>1035</v>
       </c>
     </row>
-    <row r="214" spans="1:17" x14ac:dyDescent="0.3">
+    <row r="214" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A214" t="s">
         <v>459</v>
       </c>
@@ -15558,6 +15576,9 @@
       <c r="I214" t="s">
         <v>1467</v>
       </c>
+      <c r="J214" t="s">
+        <v>1559</v>
+      </c>
       <c r="K214" t="s">
         <v>1467</v>
       </c>
@@ -15580,7 +15601,7 @@
         <v>968</v>
       </c>
     </row>
-    <row r="215" spans="1:17" x14ac:dyDescent="0.3">
+    <row r="215" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A215" t="s">
         <v>467</v>
       </c>
@@ -15621,7 +15642,7 @@
         <v>465</v>
       </c>
     </row>
-    <row r="216" spans="1:17" x14ac:dyDescent="0.3">
+    <row r="216" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A216" t="s">
         <v>495</v>
       </c>
@@ -15668,7 +15689,7 @@
         <v>1035</v>
       </c>
     </row>
-    <row r="217" spans="1:17" x14ac:dyDescent="0.3">
+    <row r="217" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A217" t="s">
         <v>1475</v>
       </c>
@@ -15709,7 +15730,7 @@
         <v>1035</v>
       </c>
     </row>
-    <row r="218" spans="1:17" x14ac:dyDescent="0.3">
+    <row r="218" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A218" t="s">
         <v>1439</v>
       </c>
@@ -15750,7 +15771,7 @@
         <v>1035</v>
       </c>
     </row>
-    <row r="219" spans="1:17" x14ac:dyDescent="0.3">
+    <row r="219" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A219" t="s">
         <v>1036</v>
       </c>
@@ -15794,7 +15815,7 @@
         <v>1035</v>
       </c>
     </row>
-    <row r="220" spans="1:17" x14ac:dyDescent="0.3">
+    <row r="220" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A220" t="s">
         <v>34</v>
       </c>
@@ -15838,7 +15859,7 @@
         <v>1035</v>
       </c>
     </row>
-    <row r="221" spans="1:17" x14ac:dyDescent="0.3">
+    <row r="221" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A221" t="s">
         <v>48</v>
       </c>
@@ -15879,7 +15900,7 @@
         <v>465</v>
       </c>
     </row>
-    <row r="222" spans="1:17" x14ac:dyDescent="0.3">
+    <row r="222" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A222" t="s">
         <v>98</v>
       </c>
@@ -15923,7 +15944,7 @@
         <v>371</v>
       </c>
     </row>
-    <row r="223" spans="1:17" x14ac:dyDescent="0.3">
+    <row r="223" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A223" t="s">
         <v>143</v>
       </c>
@@ -15964,7 +15985,7 @@
         <v>1035</v>
       </c>
     </row>
-    <row r="224" spans="1:17" x14ac:dyDescent="0.3">
+    <row r="224" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A224" t="s">
         <v>218</v>
       </c>
@@ -16008,7 +16029,7 @@
         <v>1035</v>
       </c>
     </row>
-    <row r="225" spans="1:18" x14ac:dyDescent="0.3">
+    <row r="225" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A225" t="s">
         <v>769</v>
       </c>
@@ -16052,7 +16073,7 @@
         <v>1035</v>
       </c>
     </row>
-    <row r="226" spans="1:18" x14ac:dyDescent="0.3">
+    <row r="226" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A226" t="s">
         <v>303</v>
       </c>
@@ -16096,7 +16117,7 @@
         <v>465</v>
       </c>
     </row>
-    <row r="227" spans="1:18" x14ac:dyDescent="0.3">
+    <row r="227" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A227" t="s">
         <v>372</v>
       </c>
@@ -16143,7 +16164,7 @@
         <v>1035</v>
       </c>
     </row>
-    <row r="228" spans="1:18" x14ac:dyDescent="0.3">
+    <row r="228" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A228" t="s">
         <v>458</v>
       </c>
@@ -16187,7 +16208,7 @@
         <v>465</v>
       </c>
     </row>
-    <row r="229" spans="1:18" x14ac:dyDescent="0.3">
+    <row r="229" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A229" t="s">
         <v>466</v>
       </c>
@@ -16228,7 +16249,7 @@
         <v>465</v>
       </c>
     </row>
-    <row r="230" spans="1:18" x14ac:dyDescent="0.3">
+    <row r="230" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A230" t="s">
         <v>494</v>
       </c>
@@ -16269,7 +16290,7 @@
         <v>465</v>
       </c>
     </row>
-    <row r="231" spans="1:18" x14ac:dyDescent="0.3">
+    <row r="231" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A231" t="s">
         <v>948</v>
       </c>
@@ -16310,7 +16331,7 @@
         <v>465</v>
       </c>
     </row>
-    <row r="232" spans="1:18" x14ac:dyDescent="0.3">
+    <row r="232" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A232" t="s">
         <v>541</v>
       </c>
@@ -16354,7 +16375,7 @@
         <v>465</v>
       </c>
     </row>
-    <row r="233" spans="1:18" x14ac:dyDescent="0.3">
+    <row r="233" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A233" t="s">
         <v>633</v>
       </c>
@@ -16398,7 +16419,7 @@
         <v>1035</v>
       </c>
     </row>
-    <row r="234" spans="1:18" x14ac:dyDescent="0.3">
+    <row r="234" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A234" t="s">
         <v>640</v>
       </c>
@@ -16439,7 +16460,7 @@
         <v>968</v>
       </c>
     </row>
-    <row r="235" spans="1:18" x14ac:dyDescent="0.3">
+    <row r="235" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A235" t="s">
         <v>678</v>
       </c>
@@ -16480,7 +16501,7 @@
         <v>465</v>
       </c>
     </row>
-    <row r="236" spans="1:18" x14ac:dyDescent="0.3">
+    <row r="236" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A236" t="s">
         <v>1055</v>
       </c>
@@ -16521,7 +16542,7 @@
         <v>1035</v>
       </c>
     </row>
-    <row r="237" spans="1:18" x14ac:dyDescent="0.3">
+    <row r="237" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A237" t="s">
         <v>768</v>
       </c>
@@ -16571,7 +16592,7 @@
         <v>1415</v>
       </c>
     </row>
-    <row r="238" spans="1:18" x14ac:dyDescent="0.3">
+    <row r="238" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A238" t="s">
         <v>784</v>
       </c>
@@ -16621,7 +16642,7 @@
         <v>1546</v>
       </c>
     </row>
-    <row r="239" spans="1:18" x14ac:dyDescent="0.3">
+    <row r="239" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A239" t="s">
         <v>832</v>
       </c>
@@ -16656,10 +16677,10 @@
         <v>954</v>
       </c>
       <c r="L239" t="s">
-        <v>648</v>
+        <v>27</v>
       </c>
       <c r="M239" t="s">
-        <v>648</v>
+        <v>27</v>
       </c>
       <c r="N239" t="s">
         <v>27</v>
@@ -16670,9 +16691,13 @@
       <c r="P239" t="s">
         <v>1546</v>
       </c>
+      <c r="R239" t="s">
+        <v>1557</v>
+      </c>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
 </worksheet>
 </file>
 
@@ -16806,13 +16831,40 @@
 </file>
 
 <file path=customXml/itemProps1.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{960E7C1E-5284-4DA9-81D9-7AAA2B162979}"/>
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{960E7C1E-5284-4DA9-81D9-7AAA2B162979}">
+  <ds:schemaRefs>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/contentType"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties/metaAttributes"/>
+    <ds:schemaRef ds:uri="http://www.w3.org/2001/XMLSchema"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties"/>
+    <ds:schemaRef ds:uri="http://schemas.openxmlformats.org/package/2006/metadata/core-properties"/>
+    <ds:schemaRef ds:uri="http://purl.org/dc/elements/1.1/"/>
+    <ds:schemaRef ds:uri="http://purl.org/dc/terms/"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/internal/obd"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
+  </ds:schemaRefs>
+</ds:datastoreItem>
 </file>
 
 <file path=customXml/itemProps2.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{4CCB913F-2444-4695-8CDA-3937AE1606D0}"/>
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{4CCB913F-2444-4695-8CDA-3937AE1606D0}">
+  <ds:schemaRefs>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms"/>
+  </ds:schemaRefs>
+</ds:datastoreItem>
 </file>
 
 <file path=customXml/itemProps3.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{751DAD13-6C83-43EE-AD0D-9F1E6CD4A07D}"/>
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{751DAD13-6C83-43EE-AD0D-9F1E6CD4A07D}">
+  <ds:schemaRefs>
+    <ds:schemaRef ds:uri="http://purl.org/dc/elements/1.1/"/>
+    <ds:schemaRef ds:uri="http://www.w3.org/XML/1998/namespace"/>
+    <ds:schemaRef ds:uri="http://purl.org/dc/terms/"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
+    <ds:schemaRef ds:uri="http://purl.org/dc/dcmitype/"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/documentManagement/types"/>
+    <ds:schemaRef ds:uri="http://schemas.openxmlformats.org/package/2006/metadata/core-properties"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties"/>
+  </ds:schemaRefs>
+</ds:datastoreItem>
 </file>